--- a/car_info.xlsx
+++ b/car_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projecteng\PythonProject\Integrated_traffic_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68533C34-6C2B-4E58-840A-1582BEF50AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04286B6B-6F18-468D-8CB8-EC2F09A352A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">number car </t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>kia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color </t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>17A25060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohamed </t>
+  </si>
+  <si>
+    <t>reno</t>
+  </si>
+  <si>
+    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -363,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +395,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +408,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -403,6 +424,26 @@
       </c>
       <c r="D2">
         <v>2015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2012</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
